--- a/excel/MiddleDebrisConfig.xlsx
+++ b/excel/MiddleDebrisConfig.xlsx
@@ -113,49 +113,49 @@
     <t>中级至尊星兽拼图15</t>
   </si>
   <si>
-    <t>common/items/中级拼图1</t>
-  </si>
-  <si>
-    <t>common/items/中级拼图2</t>
-  </si>
-  <si>
-    <t>common/items/中级拼图3</t>
-  </si>
-  <si>
-    <t>common/items/中级拼图4</t>
-  </si>
-  <si>
-    <t>common/items/中级拼图5</t>
-  </si>
-  <si>
-    <t>common/items/中级拼图6</t>
-  </si>
-  <si>
-    <t>common/items/中级拼图7</t>
-  </si>
-  <si>
-    <t>common/items/中级拼图8</t>
-  </si>
-  <si>
-    <t>common/items/中级拼图9</t>
-  </si>
-  <si>
-    <t>common/items/中级拼图10</t>
-  </si>
-  <si>
-    <t>common/items/中级拼图11</t>
-  </si>
-  <si>
-    <t>common/items/中级拼图12</t>
-  </si>
-  <si>
-    <t>common/items/中级拼图13</t>
-  </si>
-  <si>
-    <t>common/items/中级拼图14</t>
-  </si>
-  <si>
-    <t>common/items/中级拼图15</t>
+    <t>icon/中级拼图1</t>
+  </si>
+  <si>
+    <t>icon/中级拼图2</t>
+  </si>
+  <si>
+    <t>icon/中级拼图3</t>
+  </si>
+  <si>
+    <t>icon/中级拼图4</t>
+  </si>
+  <si>
+    <t>icon/中级拼图5</t>
+  </si>
+  <si>
+    <t>icon/中级拼图6</t>
+  </si>
+  <si>
+    <t>icon/中级拼图7</t>
+  </si>
+  <si>
+    <t>icon/中级拼图8</t>
+  </si>
+  <si>
+    <t>icon/中级拼图9</t>
+  </si>
+  <si>
+    <t>icon/中级拼图10</t>
+  </si>
+  <si>
+    <t>icon/中级拼图11</t>
+  </si>
+  <si>
+    <t>icon/中级拼图12</t>
+  </si>
+  <si>
+    <t>icon/中级拼图13</t>
+  </si>
+  <si>
+    <t>icon/中级拼图14</t>
+  </si>
+  <si>
+    <t>icon/中级拼图15</t>
   </si>
 </sst>
 </file>
@@ -548,7 +548,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
